--- a/biology/Botanique/Schioppettino/Schioppettino.xlsx
+++ b/biology/Botanique/Schioppettino/Schioppettino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le schioppettino est un cépage italien de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Schioppettino provient probablement de la région Frioul-Vénétie Julienne.
 Il est classé cépage d'appoint en DOC Colli Orientali del Friuli et Friuli Isonzo. Il est classé recommandé dans la province d'Udine et autorisé pour celle de Gorizia. En 1998, sa culture couvrait une superficie de 49 hectares principalement près de Prepotto et Albana.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc.
 Jeunes feuilles duveteuses.
@@ -577,7 +593,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le schioppettino est connu sous les noms de pocalza et ribolla nera
 </t>
